--- a/DMSNewVSale_2025-12-05_18-44.xlsx
+++ b/DMSNewVSale_2025-12-05_18-44.xlsx
@@ -326,6 +326,18 @@
     <t>27.7200</t>
   </si>
   <si>
+    <t>FORADIL12 MG 60 CAPS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>560.00</t>
+  </si>
+  <si>
+    <t>95.2000</t>
+  </si>
+  <si>
     <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
   </si>
   <si>
@@ -549,9 +561,6 @@
   </si>
   <si>
     <t>TEKLO 30 TABS.</t>
-  </si>
-  <si>
-    <t>1:1</t>
   </si>
   <si>
     <t>TICANASE 0.05% NASAL SPRAY 12 GM</t>
@@ -2252,7 +2261,7 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2279,7 +2288,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2289,14 +2298,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2305,14 +2314,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2329,7 +2338,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2345,7 +2354,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2355,11 +2364,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>15</v>
@@ -2371,14 +2380,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2388,14 +2397,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>54</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>120</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2404,14 +2413,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2421,14 +2430,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>17</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2444,21 +2453,21 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>11</v>
+        <v>127</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>17</v>
@@ -2470,14 +2479,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2487,11 +2496,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>17</v>
@@ -2503,14 +2512,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2520,11 +2529,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>17</v>
@@ -2536,31 +2545,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>33</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2569,14 +2578,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2586,14 +2595,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2602,14 +2611,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2619,14 +2628,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2635,14 +2644,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2652,14 +2661,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2668,14 +2677,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2685,14 +2694,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2701,14 +2710,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2718,14 +2727,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2734,14 +2743,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2751,11 +2760,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>17</v>
@@ -2767,14 +2776,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2800,31 +2809,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>83</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2833,28 +2842,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>82</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>15</v>
@@ -2866,14 +2875,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>157</v>
+        <v>15</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2883,11 +2892,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>89</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>15</v>
@@ -2899,14 +2908,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2916,14 +2925,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>89</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>46</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2956,7 +2965,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2972,7 +2981,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>64</v>
+        <v>168</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2982,14 +2991,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2998,7 +3007,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3015,11 +3024,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>17</v>
@@ -3031,14 +3040,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3048,11 +3057,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>17</v>
@@ -3064,7 +3073,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3081,11 +3090,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>17</v>
@@ -3097,14 +3106,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>180</v>
+        <v>17</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3114,14 +3123,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>40</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3130,14 +3139,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3147,14 +3156,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>40</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3170,7 +3179,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3184,7 +3193,7 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>118</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>17</v>
@@ -3196,14 +3205,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3213,14 +3222,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>89</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3229,14 +3238,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>123</v>
+        <v>36</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3246,14 +3255,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>147</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3262,14 +3271,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3279,11 +3288,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>17</v>
@@ -3302,13 +3311,13 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3341,15 +3350,15 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>17</v>
@@ -3361,14 +3370,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3378,14 +3387,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3401,7 +3410,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3415,10 +3424,10 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>140</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3427,14 +3436,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3444,14 +3453,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>180</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3467,7 +3476,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3477,14 +3486,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>17</v>
+        <v>106</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3493,7 +3502,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3506,15 +3515,15 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>34</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>17</v>
@@ -3526,14 +3535,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3543,11 +3552,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>17</v>
@@ -3566,7 +3575,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>211</v>
+        <v>17</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3576,14 +3585,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>78</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3592,14 +3601,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>64</v>
+        <v>214</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3613,10 +3622,10 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>135</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>11</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3625,7 +3634,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3642,14 +3651,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>218</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3679,7 +3688,7 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>93</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>221</v>
@@ -3708,14 +3717,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>150</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>11</v>
+        <v>224</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3724,14 +3733,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3741,14 +3750,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>154</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>59</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3757,14 +3766,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>227</v>
+        <v>57</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3774,14 +3783,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>150</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3790,14 +3799,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3807,14 +3816,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>147</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3823,14 +3832,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>78</v>
+        <v>224</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3840,51 +3849,84 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>230</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q82" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>232</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>78</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>53</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>150</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>233</v>
+      </c>
+      <c t="s" r="Q83" s="12">
         <v>36</v>
       </c>
     </row>
-    <row r="83" ht="25.5" customHeight="1">
-      <c r="N83" s="13">
-        <v>4375.915</v>
-      </c>
-      <c r="O83" s="13"/>
-      <c r="P83" s="13"/>
-      <c r="Q83" s="13"/>
-    </row>
-    <row r="84" ht="16.5" customHeight="1">
-      <c t="s" r="A84" s="14">
-        <v>231</v>
-      </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c t="s" r="G84" s="15">
-        <v>232</v>
-      </c>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="16"/>
-      <c t="s" r="K84" s="17">
-        <v>233</v>
-      </c>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17"/>
-      <c r="Q84" s="17"/>
+    <row r="84" ht="26.25" customHeight="1">
+      <c r="N84" s="13">
+        <v>4471.1149999999998</v>
+      </c>
+      <c r="O84" s="13"/>
+      <c r="P84" s="13"/>
+      <c r="Q84" s="13"/>
+    </row>
+    <row r="85" ht="16.5" customHeight="1">
+      <c t="s" r="A85" s="14">
+        <v>234</v>
+      </c>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c t="s" r="G85" s="15">
+        <v>235</v>
+      </c>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="16"/>
+      <c t="s" r="K85" s="17">
+        <v>236</v>
+      </c>
+      <c r="L85" s="17"/>
+      <c r="M85" s="17"/>
+      <c r="N85" s="17"/>
+      <c r="O85" s="17"/>
+      <c r="P85" s="17"/>
+      <c r="Q85" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="392">
+  <mergeCells count="397">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4273,10 +4315,15 @@
     <mergeCell ref="H82:K82"/>
     <mergeCell ref="L82:M82"/>
     <mergeCell ref="N82:O82"/>
-    <mergeCell ref="N83:Q83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="K84:Q84"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="N84:Q84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="K85:Q85"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
